--- a/Collateralization Data/Data Table.xlsx
+++ b/Collateralization Data/Data Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\TRAILMAP\Figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\DeepTraCE\Collateralization Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A986E1C-6034-4750-B641-AF9C371ADC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F9F7B32-25EB-40DE-9D9B-6811649BC1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22110" yWindow="2805" windowWidth="12090" windowHeight="13065" xr2:uid="{FD79A8D8-1211-4914-AB68-1BBB4E6EE27B}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{FD79A8D8-1211-4914-AB68-1BBB4E6EE27B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>'Frontal pole, cerebral cortex'</t>
   </si>
@@ -912,40 +912,43 @@
     <t>Mean NAc</t>
   </si>
   <si>
-    <t>cmPFC Brain 1</t>
-  </si>
-  <si>
-    <t>cmPFC Brain 2</t>
-  </si>
-  <si>
-    <t>cmPFC Brain 3</t>
-  </si>
-  <si>
-    <t>cmPFC Brain 4</t>
-  </si>
-  <si>
-    <t>Mean cmPFC</t>
-  </si>
-  <si>
-    <t>Uncorrected p value: cmPFC vs NAc</t>
-  </si>
-  <si>
-    <t>Uncorrected p value: cmPFC vs VTA</t>
-  </si>
-  <si>
     <t>Uncorrected p value: NAc vs VTA</t>
   </si>
   <si>
     <t>PC1 Weight</t>
   </si>
   <si>
-    <t>Corrected 2-way ANOVA: cmPFC vs VTA</t>
-  </si>
-  <si>
     <t>Corrected 2-way ANOVA: NAc vs VTA</t>
   </si>
   <si>
-    <t>Corrected 2-way ANOVA: cmPFC vs NAc</t>
+    <t>Model Used</t>
+  </si>
+  <si>
+    <t>Mean cPL</t>
+  </si>
+  <si>
+    <t>cPL Brain 1</t>
+  </si>
+  <si>
+    <t>cPL Brain 2</t>
+  </si>
+  <si>
+    <t>cPL Brain 3</t>
+  </si>
+  <si>
+    <t>cPL Brain 4</t>
+  </si>
+  <si>
+    <t>Corrected 2-way ANOVA: cPL vs NAc</t>
+  </si>
+  <si>
+    <t>Corrected 2-way ANOVA: cPL vs VTA</t>
+  </si>
+  <si>
+    <t>Uncorrected p value: cPL vs NAc</t>
+  </si>
+  <si>
+    <t>Uncorrected p value: cPL vs VTA</t>
   </si>
 </sst>
 </file>
@@ -956,7 +959,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,6 +1010,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1028,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1043,14 +1053,63 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF78A8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9EDDF9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF005B97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9EDDF9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF78A8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9EDDF9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF005B97"/>
+      <color rgb="FF78A8D8"/>
+      <color rgb="FF9EDDF9"/>
       <color rgb="FFFFEB84"/>
       <color rgb="FFFDE725"/>
       <color rgb="FF440154"/>
@@ -1369,9 +1428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7110C5D8-6962-40FC-BC07-281A8CEC293A}">
   <dimension ref="A1:AB141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z131" sqref="Z131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,7 +1445,8 @@
     <col min="21" max="21" width="11.28515625" style="6" customWidth="1"/>
     <col min="22" max="23" width="11.5703125" style="7" customWidth="1"/>
     <col min="24" max="24" width="11.28515625" style="7" customWidth="1"/>
-    <col min="25" max="27" width="12.140625" customWidth="1"/>
+    <col min="25" max="25" width="7.85546875" style="2" customWidth="1"/>
+    <col min="26" max="27" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -1406,16 +1466,16 @@
         <v>290</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>281</v>
@@ -1442,25 +1502,28 @@
         <v>288</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="S1" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>297</v>
-      </c>
       <c r="W1" s="4" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1542,6 +1605,9 @@
         <f t="shared" ref="X2:X33" si="5">TTEST(J2:M2,N2:Q2,2,2)</f>
         <v>0.86192362733763006</v>
       </c>
+      <c r="Y2" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1622,6 +1688,9 @@
         <f t="shared" si="5"/>
         <v>2.0773652812989693E-2</v>
       </c>
+      <c r="Y3" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1702,6 +1771,9 @@
         <f t="shared" si="5"/>
         <v>0.13926877369558402</v>
       </c>
+      <c r="Y4" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1782,6 +1854,9 @@
         <f t="shared" si="5"/>
         <v>2.517625385620522E-2</v>
       </c>
+      <c r="Y5" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1862,6 +1937,9 @@
         <f t="shared" si="5"/>
         <v>1.6979224861559626E-3</v>
       </c>
+      <c r="Y6" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1942,6 +2020,9 @@
         <f t="shared" si="5"/>
         <v>4.6980186205327849E-3</v>
       </c>
+      <c r="Y7" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2022,6 +2103,9 @@
         <f t="shared" si="5"/>
         <v>2.2276736951828053E-3</v>
       </c>
+      <c r="Y8" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2102,6 +2186,9 @@
         <f t="shared" si="5"/>
         <v>1.7597030310313934E-2</v>
       </c>
+      <c r="Y9" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -2182,6 +2269,9 @@
         <f t="shared" si="5"/>
         <v>8.2140465045746763E-3</v>
       </c>
+      <c r="Y10" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -2262,6 +2352,9 @@
         <f t="shared" si="5"/>
         <v>0.1089675346770822</v>
       </c>
+      <c r="Y11" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -2342,6 +2435,9 @@
         <f t="shared" si="5"/>
         <v>1.1455221388374451E-5</v>
       </c>
+      <c r="Y12" s="10">
+        <v>1</v>
+      </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -2425,6 +2521,9 @@
         <f t="shared" si="5"/>
         <v>0.19751059867765894</v>
       </c>
+      <c r="Y13" s="10">
+        <v>1</v>
+      </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -2508,6 +2607,9 @@
         <f t="shared" si="5"/>
         <v>0.46675203507521701</v>
       </c>
+      <c r="Y14" s="10">
+        <v>1</v>
+      </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -2591,6 +2693,9 @@
         <f t="shared" si="5"/>
         <v>0.13241675192567295</v>
       </c>
+      <c r="Y15" s="10">
+        <v>1</v>
+      </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -2674,6 +2779,9 @@
         <f t="shared" si="5"/>
         <v>0.17509252548381496</v>
       </c>
+      <c r="Y16" s="10">
+        <v>1</v>
+      </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -2757,6 +2865,9 @@
         <f t="shared" si="5"/>
         <v>0.10434633733032481</v>
       </c>
+      <c r="Y17" s="10">
+        <v>1</v>
+      </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -2840,6 +2951,9 @@
         <f t="shared" si="5"/>
         <v>0.29970145463164255</v>
       </c>
+      <c r="Y18" s="10">
+        <v>1</v>
+      </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -2923,6 +3037,9 @@
         <f t="shared" si="5"/>
         <v>0.68321023187297181</v>
       </c>
+      <c r="Y19" s="10">
+        <v>2</v>
+      </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -3006,6 +3123,9 @@
         <f t="shared" si="5"/>
         <v>0.10586371703747639</v>
       </c>
+      <c r="Y20" s="10">
+        <v>2</v>
+      </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -3089,6 +3209,9 @@
         <f t="shared" si="5"/>
         <v>7.7511233788428432E-2</v>
       </c>
+      <c r="Y21" s="10">
+        <v>2</v>
+      </c>
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3170,6 +3293,9 @@
         <f t="shared" si="5"/>
         <v>2.3582868653634251E-2</v>
       </c>
+      <c r="Y22" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -3250,6 +3376,9 @@
         <f t="shared" si="5"/>
         <v>1.2810917958465128E-2</v>
       </c>
+      <c r="Y23" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -3330,6 +3459,9 @@
         <f t="shared" si="5"/>
         <v>0.12762669943056448</v>
       </c>
+      <c r="Y24" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -3410,6 +3542,9 @@
         <f t="shared" si="5"/>
         <v>0.54901099637022599</v>
       </c>
+      <c r="Y25" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -3490,6 +3625,9 @@
         <f t="shared" si="5"/>
         <v>2.4722749062067244E-5</v>
       </c>
+      <c r="Y26" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -3570,6 +3708,9 @@
         <f t="shared" si="5"/>
         <v>0.7572996104936478</v>
       </c>
+      <c r="Y27" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -3650,6 +3791,9 @@
         <f t="shared" si="5"/>
         <v>0.97692994485689066</v>
       </c>
+      <c r="Y28" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -3730,6 +3874,9 @@
         <f t="shared" si="5"/>
         <v>6.0540370736713429E-4</v>
       </c>
+      <c r="Y29" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -3810,6 +3957,9 @@
         <f t="shared" si="5"/>
         <v>7.6012136004465045E-5</v>
       </c>
+      <c r="Y30" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -3890,6 +4040,9 @@
         <f t="shared" si="5"/>
         <v>6.4590725323719893E-4</v>
       </c>
+      <c r="Y31" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -3970,8 +4123,11 @@
         <f t="shared" si="5"/>
         <v>1.9019065055299545E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>172</v>
       </c>
@@ -4050,8 +4206,11 @@
         <f t="shared" si="5"/>
         <v>0.59811959338122311</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>173</v>
       </c>
@@ -4130,8 +4289,11 @@
         <f t="shared" ref="X34:X65" si="11">TTEST(J34:M34,N34:Q34,2,2)</f>
         <v>0.47837226666846611</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>174</v>
       </c>
@@ -4210,8 +4372,11 @@
         <f t="shared" si="11"/>
         <v>0.31437127971183709</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>175</v>
       </c>
@@ -4290,8 +4455,11 @@
         <f t="shared" si="11"/>
         <v>0.80035819935649555</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>176</v>
       </c>
@@ -4370,8 +4538,11 @@
         <f t="shared" si="11"/>
         <v>9.947085885206812E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y37" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>177</v>
       </c>
@@ -4450,8 +4621,11 @@
         <f t="shared" si="11"/>
         <v>2.9397291984875121E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>178</v>
       </c>
@@ -4530,8 +4704,11 @@
         <f t="shared" si="11"/>
         <v>0.59562632556687944</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>179</v>
       </c>
@@ -4610,8 +4787,11 @@
         <f t="shared" si="11"/>
         <v>0.70310170321981502</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>180</v>
       </c>
@@ -4690,8 +4870,11 @@
         <f t="shared" si="11"/>
         <v>2.9760481405166659E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>181</v>
       </c>
@@ -4770,8 +4953,11 @@
         <f t="shared" si="11"/>
         <v>2.1316428270339922E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>182</v>
       </c>
@@ -4850,8 +5036,11 @@
         <f t="shared" si="11"/>
         <v>0.19331118997855223</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y43" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>183</v>
       </c>
@@ -4930,8 +5119,11 @@
         <f t="shared" si="11"/>
         <v>0.35975270658008424</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y44" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>184</v>
       </c>
@@ -5010,8 +5202,11 @@
         <f t="shared" si="11"/>
         <v>0.16471628475761282</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y45" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>185</v>
       </c>
@@ -5090,8 +5285,11 @@
         <f t="shared" si="11"/>
         <v>0.51046266249677652</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y46" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>186</v>
       </c>
@@ -5170,8 +5368,11 @@
         <f t="shared" si="11"/>
         <v>0.57670832081178502</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y47" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>187</v>
       </c>
@@ -5250,8 +5451,11 @@
         <f t="shared" si="11"/>
         <v>0.17953434342222716</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y48" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>188</v>
       </c>
@@ -5330,8 +5534,11 @@
         <f t="shared" si="11"/>
         <v>4.9770135594830777E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>189</v>
       </c>
@@ -5410,8 +5617,11 @@
         <f t="shared" si="11"/>
         <v>3.3486967772904555E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>190</v>
       </c>
@@ -5490,8 +5700,11 @@
         <f t="shared" si="11"/>
         <v>0.11740032195360839</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y51" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>191</v>
       </c>
@@ -5570,8 +5783,11 @@
         <f t="shared" si="11"/>
         <v>0.26586836076433917</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>192</v>
       </c>
@@ -5650,8 +5866,11 @@
         <f t="shared" si="11"/>
         <v>0.18039853574115924</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>193</v>
       </c>
@@ -5730,8 +5949,11 @@
         <f t="shared" si="11"/>
         <v>0.26049359261392641</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y54" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>194</v>
       </c>
@@ -5810,8 +6032,11 @@
         <f t="shared" si="11"/>
         <v>4.5785401987165616E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y55" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>195</v>
       </c>
@@ -5890,8 +6115,11 @@
         <f t="shared" si="11"/>
         <v>2.0154704224845658E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y56" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>196</v>
       </c>
@@ -5970,8 +6198,11 @@
         <f t="shared" si="11"/>
         <v>1.4368871236055307E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y57" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>197</v>
       </c>
@@ -6050,8 +6281,11 @@
         <f t="shared" si="11"/>
         <v>2.2015996127807143E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y58" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>198</v>
       </c>
@@ -6130,8 +6364,11 @@
         <f t="shared" si="11"/>
         <v>2.3587493528513313E-4</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y59" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>199</v>
       </c>
@@ -6210,8 +6447,11 @@
         <f t="shared" si="11"/>
         <v>2.2574508927262857E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y60" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>200</v>
       </c>
@@ -6290,8 +6530,11 @@
         <f t="shared" si="11"/>
         <v>0.44258252856669167</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>201</v>
       </c>
@@ -6370,8 +6613,11 @@
         <f t="shared" si="11"/>
         <v>0.28584186146264362</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y62" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>202</v>
       </c>
@@ -6450,8 +6696,11 @@
         <f t="shared" si="11"/>
         <v>0.36120988224554829</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y63" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>203</v>
       </c>
@@ -6530,8 +6779,11 @@
         <f t="shared" si="11"/>
         <v>0.26194967676833214</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y64" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>204</v>
       </c>
@@ -6610,8 +6862,11 @@
         <f t="shared" si="11"/>
         <v>0.34124956935252515</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y65" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>205</v>
       </c>
@@ -6690,8 +6945,11 @@
         <f t="shared" ref="X66:X97" si="17">TTEST(J66:M66,N66:Q66,2,2)</f>
         <v>0.52231156944048296</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y66" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>206</v>
       </c>
@@ -6770,8 +7028,11 @@
         <f t="shared" si="17"/>
         <v>0.60760743997572175</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y67" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>207</v>
       </c>
@@ -6850,8 +7111,11 @@
         <f t="shared" si="17"/>
         <v>0.59925525800763446</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y68" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>208</v>
       </c>
@@ -6930,8 +7194,11 @@
         <f t="shared" si="17"/>
         <v>0.91228280809395845</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y69" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>209</v>
       </c>
@@ -7010,8 +7277,11 @@
         <f t="shared" si="17"/>
         <v>6.1989392793051275E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y70" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>210</v>
       </c>
@@ -7090,8 +7360,11 @@
         <f t="shared" si="17"/>
         <v>0.96903262068203744</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y71" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>211</v>
       </c>
@@ -7170,8 +7443,11 @@
         <f t="shared" si="17"/>
         <v>0.22700700734911153</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y72" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>212</v>
       </c>
@@ -7250,8 +7526,11 @@
         <f t="shared" si="17"/>
         <v>0.62834281585867013</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y73" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>213</v>
       </c>
@@ -7330,8 +7609,11 @@
         <f t="shared" si="17"/>
         <v>0.48849957277762424</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y74" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>214</v>
       </c>
@@ -7410,8 +7692,11 @@
         <f t="shared" si="17"/>
         <v>0.30920065139265945</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y75" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>215</v>
       </c>
@@ -7490,8 +7775,11 @@
         <f t="shared" si="17"/>
         <v>0.21217201209173095</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y76" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>216</v>
       </c>
@@ -7570,8 +7858,11 @@
         <f t="shared" si="17"/>
         <v>0.20396507992530485</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y77" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>217</v>
       </c>
@@ -7650,8 +7941,11 @@
         <f t="shared" si="17"/>
         <v>0.12880020113762189</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y78" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>218</v>
       </c>
@@ -7730,8 +8024,11 @@
         <f t="shared" si="17"/>
         <v>0.12316806294534854</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y79" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>219</v>
       </c>
@@ -7810,8 +8107,11 @@
         <f t="shared" si="17"/>
         <v>0.5658560115776583</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y80" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>220</v>
       </c>
@@ -7890,8 +8190,11 @@
         <f t="shared" si="17"/>
         <v>0.14794950602049159</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y81" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>221</v>
       </c>
@@ -7970,8 +8273,11 @@
         <f t="shared" si="17"/>
         <v>0.22268146228532346</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y82" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>222</v>
       </c>
@@ -8050,8 +8356,11 @@
         <f t="shared" si="17"/>
         <v>0.17075870101760843</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y83" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>223</v>
       </c>
@@ -8130,8 +8439,11 @@
         <f t="shared" si="17"/>
         <v>0.27313491435709492</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y84" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>224</v>
       </c>
@@ -8210,8 +8522,11 @@
         <f t="shared" si="17"/>
         <v>0.25357394636431874</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y85" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>225</v>
       </c>
@@ -8290,8 +8605,11 @@
         <f t="shared" si="17"/>
         <v>0.28084557058144005</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y86" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>226</v>
       </c>
@@ -8370,8 +8688,11 @@
         <f t="shared" si="17"/>
         <v>0.29440530008722937</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y87" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>227</v>
       </c>
@@ -8450,8 +8771,11 @@
         <f t="shared" si="17"/>
         <v>0.86264725707137857</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y88" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>228</v>
       </c>
@@ -8530,8 +8854,11 @@
         <f t="shared" si="17"/>
         <v>0.48937664778999757</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y89" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>229</v>
       </c>
@@ -8610,8 +8937,11 @@
         <f t="shared" si="17"/>
         <v>0.156676323705078</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y90" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>230</v>
       </c>
@@ -8690,8 +9020,11 @@
         <f t="shared" si="17"/>
         <v>0.2150943386315855</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y91" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>231</v>
       </c>
@@ -8770,8 +9103,11 @@
         <f t="shared" si="17"/>
         <v>1.8463243326473429E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y92" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>232</v>
       </c>
@@ -8850,8 +9186,11 @@
         <f t="shared" si="17"/>
         <v>0.2258781631788862</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y93" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>233</v>
       </c>
@@ -8930,8 +9269,11 @@
         <f t="shared" si="17"/>
         <v>0.20695516199805589</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y94" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>234</v>
       </c>
@@ -9010,8 +9352,11 @@
         <f t="shared" si="17"/>
         <v>0.51273736953815185</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y95" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>235</v>
       </c>
@@ -9090,8 +9435,11 @@
         <f t="shared" si="17"/>
         <v>0.12621096472133464</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y96" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>236</v>
       </c>
@@ -9170,8 +9518,11 @@
         <f t="shared" si="17"/>
         <v>0.8061374342526082</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y97" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>237</v>
       </c>
@@ -9250,8 +9601,11 @@
         <f t="shared" ref="X98:X129" si="23">TTEST(J98:M98,N98:Q98,2,2)</f>
         <v>0.48927063701372009</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y98" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>238</v>
       </c>
@@ -9330,8 +9684,11 @@
         <f t="shared" si="23"/>
         <v>6.2694615082933766E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y99" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>239</v>
       </c>
@@ -9410,8 +9767,11 @@
         <f t="shared" si="23"/>
         <v>0.47066595244732345</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y100" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>240</v>
       </c>
@@ -9490,8 +9850,11 @@
         <f t="shared" si="23"/>
         <v>0.36393749932284292</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y101" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>241</v>
       </c>
@@ -9570,8 +9933,11 @@
         <f t="shared" si="23"/>
         <v>0.7547771221428401</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y102" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>242</v>
       </c>
@@ -9650,8 +10016,11 @@
         <f t="shared" si="23"/>
         <v>0.96184877205398234</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y103" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>243</v>
       </c>
@@ -9730,8 +10099,11 @@
         <f t="shared" si="23"/>
         <v>0.60971440186738457</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y104" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>244</v>
       </c>
@@ -9810,8 +10182,11 @@
         <f t="shared" si="23"/>
         <v>0.66561913342169765</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y105" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>245</v>
       </c>
@@ -9890,8 +10265,11 @@
         <f t="shared" si="23"/>
         <v>0.70595780607246095</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y106" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>246</v>
       </c>
@@ -9970,8 +10348,11 @@
         <f t="shared" si="23"/>
         <v>0.86267107696322709</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y107" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>247</v>
       </c>
@@ -10050,8 +10431,11 @@
         <f t="shared" si="23"/>
         <v>0.37623518397238098</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y108" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>248</v>
       </c>
@@ -10130,8 +10514,11 @@
         <f t="shared" si="23"/>
         <v>9.216057743094537E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y109" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>249</v>
       </c>
@@ -10210,8 +10597,11 @@
         <f t="shared" si="23"/>
         <v>0.82327827260526842</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y110" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>250</v>
       </c>
@@ -10290,8 +10680,11 @@
         <f t="shared" si="23"/>
         <v>0.30792976770666197</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y111" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>251</v>
       </c>
@@ -10370,8 +10763,11 @@
         <f t="shared" si="23"/>
         <v>0.12857407219171887</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y112" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>252</v>
       </c>
@@ -10450,8 +10846,11 @@
         <f t="shared" si="23"/>
         <v>0.79150996874557489</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y113" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>253</v>
       </c>
@@ -10530,8 +10929,11 @@
         <f t="shared" si="23"/>
         <v>7.9704073235930557E-3</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y114" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>254</v>
       </c>
@@ -10610,8 +11012,11 @@
         <f t="shared" si="23"/>
         <v>0.24583466442213833</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y115" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>255</v>
       </c>
@@ -10690,8 +11095,11 @@
         <f t="shared" si="23"/>
         <v>0.39477654145066676</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y116" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>256</v>
       </c>
@@ -10770,8 +11178,11 @@
         <f t="shared" si="23"/>
         <v>3.9876612498151588E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y117" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>257</v>
       </c>
@@ -10850,8 +11261,11 @@
         <f t="shared" si="23"/>
         <v>0.19577972149640249</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y118" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>258</v>
       </c>
@@ -10930,8 +11344,11 @@
         <f t="shared" si="23"/>
         <v>8.646701910386087E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y119" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>259</v>
       </c>
@@ -11010,8 +11427,11 @@
         <f t="shared" si="23"/>
         <v>0.63227019500699633</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y120" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>260</v>
       </c>
@@ -11090,8 +11510,11 @@
         <f t="shared" si="23"/>
         <v>6.5765112470570319E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y121" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>261</v>
       </c>
@@ -11170,8 +11593,11 @@
         <f t="shared" si="23"/>
         <v>0.58326776570230221</v>
       </c>
-    </row>
-    <row r="123" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y122" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>262</v>
       </c>
@@ -11250,8 +11676,11 @@
         <f t="shared" si="23"/>
         <v>0.46342001992450887</v>
       </c>
-    </row>
-    <row r="124" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y123" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>263</v>
       </c>
@@ -11330,8 +11759,11 @@
         <f t="shared" si="23"/>
         <v>0.28856001661747427</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y124" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>264</v>
       </c>
@@ -11410,8 +11842,11 @@
         <f t="shared" si="23"/>
         <v>0.83052845707120759</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y125" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>265</v>
       </c>
@@ -11490,8 +11925,11 @@
         <f t="shared" si="23"/>
         <v>0.24032479588595396</v>
       </c>
-    </row>
-    <row r="127" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y126" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>266</v>
       </c>
@@ -11570,8 +12008,11 @@
         <f t="shared" si="23"/>
         <v>0.1333096747925627</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y127" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>267</v>
       </c>
@@ -11650,8 +12091,11 @@
         <f t="shared" si="23"/>
         <v>0.92153271763627986</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y128" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>268</v>
       </c>
@@ -11730,8 +12174,11 @@
         <f t="shared" si="23"/>
         <v>0.94205226187288438</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y129" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>269</v>
       </c>
@@ -11810,8 +12257,11 @@
         <f t="shared" ref="X130:X141" si="29">TTEST(J130:M130,N130:Q130,2,2)</f>
         <v>0.5991020979806565</v>
       </c>
-    </row>
-    <row r="131" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y130" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>270</v>
       </c>
@@ -11890,8 +12340,11 @@
         <f t="shared" si="29"/>
         <v>0.39603963672413495</v>
       </c>
-    </row>
-    <row r="132" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y131" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>271</v>
       </c>
@@ -11970,8 +12423,11 @@
         <f t="shared" si="29"/>
         <v>0.89401820017452649</v>
       </c>
-    </row>
-    <row r="133" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y132" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>272</v>
       </c>
@@ -12050,8 +12506,11 @@
         <f t="shared" si="29"/>
         <v>0.46122032442114824</v>
       </c>
-    </row>
-    <row r="134" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y133" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>273</v>
       </c>
@@ -12130,8 +12589,11 @@
         <f t="shared" si="29"/>
         <v>0.8187173765506206</v>
       </c>
-    </row>
-    <row r="135" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y134" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>274</v>
       </c>
@@ -12210,8 +12672,11 @@
         <f t="shared" si="29"/>
         <v>2.9946909950977582E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y135" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>275</v>
       </c>
@@ -12290,8 +12755,11 @@
         <f t="shared" si="29"/>
         <v>0.81903701886394886</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y136" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>276</v>
       </c>
@@ -12370,8 +12838,11 @@
         <f t="shared" si="29"/>
         <v>0.4481638137383539</v>
       </c>
-    </row>
-    <row r="138" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y137" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>277</v>
       </c>
@@ -12450,8 +12921,11 @@
         <f t="shared" si="29"/>
         <v>0.39033015521420628</v>
       </c>
-    </row>
-    <row r="139" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y138" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>278</v>
       </c>
@@ -12530,8 +13004,11 @@
         <f t="shared" si="29"/>
         <v>0.55878106115437132</v>
       </c>
-    </row>
-    <row r="140" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y139" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>279</v>
       </c>
@@ -12610,8 +13087,11 @@
         <f t="shared" si="29"/>
         <v>0.5796661754152761</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y140" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>280</v>
       </c>
@@ -12690,11 +13170,14 @@
         <f t="shared" si="29"/>
         <v>0.7280384041732304</v>
       </c>
+      <c r="Y141" s="10">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0.05"/>
@@ -12706,7 +13189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W1048576">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0.05"/>
@@ -12718,7 +13201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0.05"/>
@@ -12730,7 +13213,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="-0.4"/>
         <cfvo type="num" val="0"/>
@@ -12742,7 +13225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:Q1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.02"/>
@@ -12754,7 +13237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0.05"/>
@@ -12766,7 +13249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0.05"/>
@@ -12778,7 +13261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0.05"/>
@@ -12789,6 +13272,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y141">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
